--- a/src/main/java/com/awinas/learning/leetcode/hard/NQueen.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/hard/NQueen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/hard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD26C74-BC66-0145-BE6B-30AFC3CEF601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE28AD5-3696-AC4F-A67D-4531DE783982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33540" windowHeight="21580" xr2:uid="{5875C6DF-DABE-9248-85A7-88E5AC571B60}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="E1:CD67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="BT21" sqref="BT21"/>
+      <selection activeCell="BL34" sqref="BL34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3762,21 +3762,51 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
-      <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
-      <c r="BL34" s="1"/>
-      <c r="BM34" s="1"/>
-      <c r="BN34" s="1"/>
-      <c r="BO34" s="1"/>
-      <c r="BP34" s="1"/>
-      <c r="BQ34" s="1"/>
-      <c r="BR34" s="1"/>
-      <c r="BS34" s="1"/>
-      <c r="BT34" s="1"/>
-      <c r="BU34" s="1"/>
+      <c r="BG34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH34" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM34" s="1">
+        <v>7</v>
+      </c>
+      <c r="BN34" s="1">
+        <v>8</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>9</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>10</v>
+      </c>
+      <c r="BQ34" s="1">
+        <v>11</v>
+      </c>
+      <c r="BR34" s="1">
+        <v>12</v>
+      </c>
+      <c r="BS34" s="1">
+        <v>13</v>
+      </c>
+      <c r="BT34" s="1">
+        <v>14</v>
+      </c>
+      <c r="BU34" s="1">
+        <v>15</v>
+      </c>
       <c r="BV34" s="1"/>
       <c r="BW34" s="1"/>
       <c r="BX34" s="1"/>
